--- a/static/data/sodan_1.xlsx
+++ b/static/data/sodan_1.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$85</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -503,13 +503,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomRight" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1828,17 +1828,63 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="3"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="A78" s="3">
+        <v>43933</v>
+      </c>
+      <c r="B78" s="5">
+        <v>697</v>
+      </c>
+      <c r="C78" s="5">
+        <v>20958</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>4872</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="3"/>
-      <c r="B79" s="5" t="s">
+      <c r="A79" s="3">
+        <v>43934</v>
+      </c>
+      <c r="B79" s="5">
+        <v>1047</v>
+      </c>
+      <c r="C79" s="5">
+        <v>22005</v>
+      </c>
+      <c r="D79" s="4">
+        <v>195</v>
+      </c>
+      <c r="E79" s="4">
+        <v>5067</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="3">
+        <v>43935</v>
+      </c>
+      <c r="B80" s="5">
+        <v>770</v>
+      </c>
+      <c r="C80" s="5">
+        <v>22775</v>
+      </c>
+      <c r="D80" s="4">
+        <v>165</v>
+      </c>
+      <c r="E80" s="4">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="3"/>
+      <c r="B81" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
